--- a/travel_packing_list.xlsx
+++ b/travel_packing_list.xlsx
@@ -2,25 +2,341 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raymond\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CFB145-FE09-42F3-B8B2-62E0192E4A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303A411B-E773-481A-96BF-0D8560969E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{21E827C3-B1D8-4F03-97E5-EE11646E01B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="103">
+  <si>
+    <t> Passport</t>
+  </si>
+  <si>
+    <t> Visa</t>
+  </si>
+  <si>
+    <t> Chinese identity card</t>
+  </si>
+  <si>
+    <t> Credit and debit cards</t>
+  </si>
+  <si>
+    <t> Cash (local currency and Euros)</t>
+  </si>
+  <si>
+    <t> Notebook</t>
+  </si>
+  <si>
+    <t> Pencil case</t>
+  </si>
+  <si>
+    <t> Maps</t>
+  </si>
+  <si>
+    <t>II. Personal Care &amp; Beauty Products</t>
+  </si>
+  <si>
+    <t> Facial cleanser</t>
+  </si>
+  <si>
+    <t> Shampoo</t>
+  </si>
+  <si>
+    <t> Conditioner</t>
+  </si>
+  <si>
+    <t> Body soap</t>
+  </si>
+  <si>
+    <t> Shower sponge</t>
+  </si>
+  <si>
+    <t> Toothbrush</t>
+  </si>
+  <si>
+    <t> Toothpaste</t>
+  </si>
+  <si>
+    <t> Femfresh</t>
+  </si>
+  <si>
+    <t> Razor</t>
+  </si>
+  <si>
+    <t> Hairdryer &amp; hair straightening comb</t>
+  </si>
+  <si>
+    <t> Hair ties</t>
+  </si>
+  <si>
+    <t> Toner</t>
+  </si>
+  <si>
+    <t> Moisturizing lotion</t>
+  </si>
+  <si>
+    <t> Moisturizing essence</t>
+  </si>
+  <si>
+    <t> Face cream</t>
+  </si>
+  <si>
+    <t> Sunscreen</t>
+  </si>
+  <si>
+    <t> Sunscreen spray</t>
+  </si>
+  <si>
+    <t> Tone-up cream</t>
+  </si>
+  <si>
+    <t> Makeup primer</t>
+  </si>
+  <si>
+    <t> Moisturizing spray</t>
+  </si>
+  <si>
+    <t> Foundation</t>
+  </si>
+  <si>
+    <t> Concealer</t>
+  </si>
+  <si>
+    <t> Blush</t>
+  </si>
+  <si>
+    <t> Eyeshadow</t>
+  </si>
+  <si>
+    <t> Eyeliner</t>
+  </si>
+  <si>
+    <t> Eyelash curler</t>
+  </si>
+  <si>
+    <t> Mascara</t>
+  </si>
+  <si>
+    <t> Lip balm</t>
+  </si>
+  <si>
+    <t> Lipstick</t>
+  </si>
+  <si>
+    <t> Lip gloss</t>
+  </si>
+  <si>
+    <t> Makeup brushes</t>
+  </si>
+  <si>
+    <t> Setting spray</t>
+  </si>
+  <si>
+    <t> Makeup bag</t>
+  </si>
+  <si>
+    <t> Face masks</t>
+  </si>
+  <si>
+    <t> Makeup remover</t>
+  </si>
+  <si>
+    <t> Makeup cotton</t>
+  </si>
+  <si>
+    <t> Beauty sponge</t>
+  </si>
+  <si>
+    <t> Hand cream</t>
+  </si>
+  <si>
+    <t> Perfumes</t>
+  </si>
+  <si>
+    <t> Casamorati (Mefisto)</t>
+  </si>
+  <si>
+    <t> Prada (paradoxe)</t>
+  </si>
+  <si>
+    <t> Mainson Margiela (Autumn Vibes)</t>
+  </si>
+  <si>
+    <t> Hermes (Un Jardin sur le Nil)</t>
+  </si>
+  <si>
+    <t> Atelier Cologne (Cedre Atlas)</t>
+  </si>
+  <si>
+    <t>III. Clothing and Bags</t>
+  </si>
+  <si>
+    <t> Sleepwear</t>
+  </si>
+  <si>
+    <t> Disposable underwear</t>
+  </si>
+  <si>
+    <t> Bras</t>
+  </si>
+  <si>
+    <t> Socks</t>
+  </si>
+  <si>
+    <t> Slippers</t>
+  </si>
+  <si>
+    <t> ……</t>
+  </si>
+  <si>
+    <t>IV. Accessories</t>
+  </si>
+  <si>
+    <t> Watch</t>
+  </si>
+  <si>
+    <t> Necklace</t>
+  </si>
+  <si>
+    <t> Ring</t>
+  </si>
+  <si>
+    <t> Earring</t>
+  </si>
+  <si>
+    <t> Cosmetic mirror</t>
+  </si>
+  <si>
+    <t> Sunglasses (black)</t>
+  </si>
+  <si>
+    <t> Sunglasses (white)</t>
+  </si>
+  <si>
+    <t> Travel pillow</t>
+  </si>
+  <si>
+    <t>V. Health and Medications</t>
+  </si>
+  <si>
+    <t> Euthyrox</t>
+  </si>
+  <si>
+    <t> Panadol</t>
+  </si>
+  <si>
+    <t> Leftose</t>
+  </si>
+  <si>
+    <t> Difflam</t>
+  </si>
+  <si>
+    <t> Talcid</t>
+  </si>
+  <si>
+    <t>VI. Electronic Products</t>
+  </si>
+  <si>
+    <t> Travel adapter</t>
+  </si>
+  <si>
+    <t> Wired earpiece (iPhone)</t>
+  </si>
+  <si>
+    <t> Wireless earpiece (iPhone)</t>
+  </si>
+  <si>
+    <t> Wired earpiece (Others)</t>
+  </si>
+  <si>
+    <t> Wireless earpiece (Others)</t>
+  </si>
+  <si>
+    <t> Phone charger x2</t>
+  </si>
+  <si>
+    <t> Power bank</t>
+  </si>
+  <si>
+    <t>VII. Miscellaneous</t>
+  </si>
+  <si>
+    <t> Nail clipper</t>
+  </si>
+  <si>
+    <t> Umbrella</t>
+  </si>
+  <si>
+    <t> Raincoat</t>
+  </si>
+  <si>
+    <t> One-time use bedsheets</t>
+  </si>
+  <si>
+    <t> One-time use bath towels</t>
+  </si>
+  <si>
+    <t> One-time use towels</t>
+  </si>
+  <si>
+    <t> One-time use toilet seat covers</t>
+  </si>
+  <si>
+    <t> Surgical masks</t>
+  </si>
+  <si>
+    <t> Sanitary pads</t>
+  </si>
+  <si>
+    <t> Disposable period panties</t>
+  </si>
+  <si>
+    <t> Mouth wash</t>
+  </si>
+  <si>
+    <t> Dental floss</t>
+  </si>
+  <si>
+    <t> Wet wipes</t>
+  </si>
+  <si>
+    <t> Pocket tissue</t>
+  </si>
+  <si>
+    <t> Contact lens</t>
+  </si>
+  <si>
+    <t>Documents</t>
+  </si>
   <si>
     <t>Category</t>
   </si>
@@ -29,24 +345,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>Lipstick</t>
-  </si>
-  <si>
-    <t>Foundation</t>
-  </si>
-  <si>
-    <t>Documents</t>
-  </si>
-  <si>
-    <t>Passport</t>
-  </si>
-  <si>
-    <t>Visa</t>
   </si>
 </sst>
 </file>
@@ -57,7 +355,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -112,7 +410,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -203,44 +501,44 @@
         <a:sysClr val="window" lastClr="000000"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -267,14 +565,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -301,6 +617,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -312,235 +646,1235 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E11F6B1-517D-4E5B-B2D8-0EBB06BB776A}">
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>75</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>83</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>83</v>
+      </c>
+      <c r="B94" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>83</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>83</v>
+      </c>
+      <c r="B96" t="s">
+        <v>59</v>
+      </c>
+      <c r="C96">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>